--- a/TIPO DE DADOS.xlsx
+++ b/TIPO DE DADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menez\OneDrive\Documentos\SQLSERVER22\BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C06BCA-4614-4737-8542-BE2FC9BD5694}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10638767-B940-4646-80F5-5DFEAF30E4BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0108AC6E-4B35-49A5-B969-35B608A2FDA3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Categoria</t>
   </si>
@@ -312,53 +312,6 @@
       </rPr>
       <t>decimal(3,2)</t>
     </r>
-  </si>
-  <si>
-    <t>CRIANDO DATABASE</t>
-  </si>
-  <si>
-    <t>CREATE DATBASE suco_vendas;</t>
-  </si>
-  <si>
-    <t>USE DATABASE</t>
-  </si>
-  <si>
-    <t>EXCLUINDO DATABASE</t>
-  </si>
-  <si>
-    <t>DROP  DATABASE suco_vendas;</t>
-  </si>
-  <si>
-    <t>USE suco_vendas;</t>
-  </si>
-  <si>
-    <t>CRIANDO TABELA</t>
-  </si>
-  <si>
-    <t>CREATE TABLE [tabela produtos]( CREATE TABLE [TABELA DE CLIENTE](
-[CPF] [CHAR] (11),
-[NOME] [VARCHAR] (150),
-[RUA] [VARCHAR] (150),
-[COMPLEMENTO] [VARCHAR] (150),
-[BAIRRO] [VARCHAR] (150),
-[ESTADO] [CHAR] (2),
-[CEP] [CHAR] (8),
-[DATA DE NASCIMENTO] [DATE],
-[IDADE] [SMALLINT],
-[SEXO] [CHAR] (1),
-[LIMITE DE CREDITO) [MONEY],
-[VOLUME MINIMO] [FLOAT],
-[PRIMEIRA COMPRA] [BIT]
-)</t>
-  </si>
-  <si>
-    <t>ALTERAR TABELA</t>
-  </si>
-  <si>
-    <t>ALTER TABLE [TABELA DE CLIENTES] ADD CONSTRAINT PK_TABELA_CLIENTE PRIMARY KEY CLUSTERED ([CPF]);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTER TABLE [TABELA DE CLIENTES] ALTER COLUMN [CPF] [CHAR] (11) NOT NULL; </t>
   </si>
 </sst>
 </file>
@@ -437,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,21 +403,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,18 +727,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632E44AE-50B9-4519-A7FB-F2EE91A76EF3}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,7 +756,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -823,7 +770,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -837,7 +784,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -851,7 +798,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -865,7 +812,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -875,7 +822,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -887,7 +834,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -901,7 +848,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
@@ -912,63 +859,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="249" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D12" xr:uid="{4B16BD94-3866-4F6D-9915-2C54E4B63080}"/>
-  <mergeCells count="4">
+  <autoFilter ref="A1:D11" xr:uid="{4B16BD94-3866-4F6D-9915-2C54E4B63080}"/>
+  <mergeCells count="2">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
